--- a/hominfoSingaPore.xlsx
+++ b/hominfoSingaPore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\letenok\Documents\work\Flashscore\streaks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52013EFA-497C-42F5-ABCA-C4DD436E2CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F757A832-5898-406D-BA28-16868597FFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -962,12 +962,13 @@
   <dimension ref="A1:EF10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.5546875" bestFit="1" customWidth="1"/>
